--- a/datos/ejemplo.xlsx
+++ b/datos/ejemplo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TECBA 2025\OTM 2025\PARCIAL3_OTM106\PARCIAL3_OTM106\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47612C18-C8B5-4721-BF3D-BB66853302C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7C6F84-1641-4FAD-8A6F-CC73E036CB6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Valor</t>
   </si>
@@ -38,18 +38,6 @@
     <t>Porcentaje</t>
   </si>
   <si>
-    <t>Niños (M) (0 – 5)</t>
-  </si>
-  <si>
-    <t>Niños (F) (0 – 5)</t>
-  </si>
-  <si>
-    <t>Niño/Joven (M ) (6 – 17)</t>
-  </si>
-  <si>
-    <t>Niño/Joven (F) (6 – 17)</t>
-  </si>
-  <si>
     <t>Adultos (M) (18 – 60)</t>
   </si>
   <si>
@@ -123,6 +111,33 @@
   </si>
   <si>
     <t>CANTIDAD DE ABONADOS</t>
+  </si>
+  <si>
+    <t>Niños Bolivarista (M) (0 – 5)</t>
+  </si>
+  <si>
+    <t>Niños Strongistas (F) (0 – 5)</t>
+  </si>
+  <si>
+    <t>Niño/Joven Bolivaristas (M ) (6 – 17)</t>
+  </si>
+  <si>
+    <t>Niño/Joven stromguuistas (F) (6 – 17)</t>
+  </si>
+  <si>
+    <t>NIÑOS LESIONADOS</t>
+  </si>
+  <si>
+    <t>NIÑAS LESIONADAS</t>
+  </si>
+  <si>
+    <t>NIÑOS CON TARJETA AMARILLA</t>
+  </si>
+  <si>
+    <t>NIÑOS CON TARJETA ROJA</t>
+  </si>
+  <si>
+    <t>NIÑOS NO HABILITADOS</t>
   </si>
 </sst>
 </file>
@@ -691,7 +706,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -701,10 +716,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -712,7 +727,7 @@
     </row>
     <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="11">
         <v>100</v>
@@ -723,7 +738,7 @@
     </row>
     <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="11">
         <v>100</v>
@@ -734,7 +749,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="12">
         <v>250</v>
@@ -745,7 +760,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" s="12">
         <v>210</v>
@@ -756,7 +771,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12">
         <v>340</v>
@@ -790,18 +805,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4">
         <v>12</v>
@@ -812,7 +827,7 @@
     </row>
     <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>10</v>
@@ -823,7 +838,7 @@
     </row>
     <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>10</v>
@@ -834,7 +849,7 @@
     </row>
     <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>10</v>
@@ -845,7 +860,7 @@
     </row>
     <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" s="7">
         <v>3</v>
@@ -868,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -879,18 +894,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11">
         <v>34</v>
@@ -901,7 +916,7 @@
     </row>
     <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="11">
         <v>15</v>
@@ -912,7 +927,7 @@
     </row>
     <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="12">
         <v>15</v>
@@ -923,7 +938,7 @@
     </row>
     <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="12">
         <v>12</v>
@@ -934,7 +949,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12">
         <v>14</v>
@@ -958,7 +973,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -968,7 +983,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -979,7 +994,7 @@
     </row>
     <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4">
         <v>10</v>
@@ -990,7 +1005,7 @@
     </row>
     <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4">
         <v>8</v>
@@ -1001,7 +1016,7 @@
     </row>
     <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
@@ -1012,7 +1027,7 @@
     </row>
     <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
@@ -1023,7 +1038,7 @@
     </row>
     <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4">
         <v>16</v>
@@ -1047,7 +1062,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1057,10 +1072,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1068,7 +1083,7 @@
     </row>
     <row r="2" spans="1:3" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4">
         <v>0.83</v>
@@ -1079,7 +1094,7 @@
     </row>
     <row r="3" spans="1:3" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4">
         <v>0.67</v>
@@ -1090,7 +1105,7 @@
     </row>
     <row r="4" spans="1:3" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4">
         <v>0.33</v>
@@ -1101,7 +1116,7 @@
     </row>
     <row r="5" spans="1:3" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4">
         <v>0.42</v>
@@ -1112,7 +1127,7 @@
     </row>
     <row r="6" spans="1:3" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4">
         <v>1.33</v>
@@ -1136,7 +1151,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1146,18 +1161,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11">
         <v>340</v>
@@ -1168,7 +1183,7 @@
     </row>
     <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="11">
         <v>150</v>
@@ -1179,7 +1194,7 @@
     </row>
     <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="12">
         <v>150</v>
@@ -1190,7 +1205,7 @@
     </row>
     <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="12">
         <v>120</v>
@@ -1201,7 +1216,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12">
         <v>140</v>
